--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/structureData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/structureData.xlsx
@@ -13,8 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Xiang Yang</author>
+  </authors>
+  <commentList>
+    <comment ref="R3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Xiang Yang:最大高度差定义为承靠内最大高度差，非矢高
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>项目量产结构数据表</t>
   </si>
@@ -76,10 +100,68 @@
     <t>整体径厚比</t>
   </si>
   <si>
-    <t>最大角度R1</t>
-  </si>
-  <si>
-    <t>最大角度R2</t>
+    <t>最大角度R1(°)</t>
+  </si>
+  <si>
+    <t>最大角度R2(°)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大高度差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(um)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大高度差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(um)</t>
+    </r>
   </si>
   <si>
     <t>R1终端到R2坎合根部距离(um)</t>
@@ -94,16 +176,16 @@
     <t>机构径厚比</t>
   </si>
   <si>
-    <t>R1坎合角度</t>
-  </si>
-  <si>
-    <t>R1坎合高度</t>
-  </si>
-  <si>
-    <t>R2坎合角度</t>
-  </si>
-  <si>
-    <t>R2坎合高度</t>
+    <t>R1坎合角度(°)</t>
+  </si>
+  <si>
+    <t>R1坎合高度(um)</t>
+  </si>
+  <si>
+    <t>R2坎合角度(°)</t>
+  </si>
+  <si>
+    <t>R2坎合高度(um)</t>
   </si>
   <si>
     <t>R1消光位置（粗糙度SRTM）</t>
@@ -125,7 +207,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,11 +224,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -299,8 +395,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +417,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -494,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -514,6 +628,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,171 +749,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,15 +1267,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:30">
+    <row r="1" ht="29.1" customHeight="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,9 +1310,11 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
-      <c r="AD1" s="4"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="6"/>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:30">
+    <row r="2" ht="21" customHeight="1" spans="1:32">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1190,42 +1327,44 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="5" t="s">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="6"/>
+      <c r="AF2" s="7"/>
     </row>
-    <row r="3" ht="57" customHeight="1" spans="1:30">
+    <row r="3" ht="57" customHeight="1" spans="1:31">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1269,10 +1408,10 @@
       <c r="Q3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="T3" s="3" t="s">
@@ -1302,23 +1441,29 @@
       <c r="AB3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="6"/>
+      <c r="AC3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A1:AE1"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:AB2"/>
+    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="T2:AD2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/structureData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/structureData.xlsx
@@ -408,18 +408,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -752,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,16 +758,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,52 +779,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -839,16 +833,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,37 +857,34 @@
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -910,7 +904,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1270,7 +1264,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/structureData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/structureData.xlsx
@@ -70,13 +70,13 @@
     <t>芯厚(um)</t>
   </si>
   <si>
-    <t>最厚壁厚(um)</t>
-  </si>
-  <si>
-    <t>最薄壁厚(um)</t>
-  </si>
-  <si>
-    <t>最厚/芯厚</t>
+    <t>光学最厚壁厚(um)</t>
+  </si>
+  <si>
+    <t>光学最薄壁厚(um)</t>
+  </si>
+  <si>
+    <t>光学最厚/芯厚</t>
   </si>
   <si>
     <t>光学厚薄比</t>
@@ -100,12 +100,15 @@
     <t>整体径厚比</t>
   </si>
   <si>
-    <t>最大角度R1(°)</t>
-  </si>
-  <si>
-    <t>最大角度R2(°)</t>
-  </si>
-  <si>
+    <t>整体最大角度R1(°)</t>
+  </si>
+  <si>
+    <t>整体最大角度R2(°)</t>
+  </si>
+  <si>
+    <r>
+      <t>整体</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <r>
+      <t>整体</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
@@ -241,7 +247,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -398,7 +404,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1263,8 +1269,8 @@
   <sheetPr/>
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/structureData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/structureData.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="20925" windowHeight="9840" tabRatio="409"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据搜集模板" sheetId="1" r:id="rId1"/>
+    <sheet name="数据格式备注" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,7 +20,7 @@
     <author>Xiang Yang</author>
   </authors>
   <commentList>
-    <comment ref="R3" authorId="0">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,14 +39,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>项目量产结构数据表</t>
   </si>
   <si>
+    <t>事业部</t>
+  </si>
+  <si>
     <t>类别</t>
   </si>
   <si>
+    <t>镜片数</t>
+  </si>
+  <si>
     <t>项目</t>
   </si>
   <si>
@@ -70,16 +77,98 @@
     <t>芯厚(um)</t>
   </si>
   <si>
-    <t>光学最厚壁厚(um)</t>
-  </si>
-  <si>
-    <t>光学最薄壁厚(um)</t>
-  </si>
-  <si>
-    <t>光学最厚/芯厚</t>
-  </si>
-  <si>
-    <t>光学厚薄比</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>光学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最厚壁厚(um)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>光学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最薄壁厚(um)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>光学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最厚/芯厚</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>光学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>厚薄比</t>
+    </r>
+  </si>
+  <si>
+    <t>光学最大角度R1(°)</t>
+  </si>
+  <si>
+    <t>光学最大角度R2(°)</t>
   </si>
   <si>
     <t>外径(um)</t>
@@ -107,6 +196,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>整体</t>
     </r>
     <r>
@@ -139,6 +234,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>整体</t>
     </r>
     <r>
@@ -200,7 +301,114 @@
     <t>R2消光位置（粗糙度SRTM）</t>
   </si>
   <si>
+    <t>R1分割位位置</t>
+  </si>
+  <si>
+    <t>R2分割位位置</t>
+  </si>
+  <si>
     <t>外径消光位置（粗糙度SRTM）</t>
+  </si>
+  <si>
+    <t>分型面上抬比例</t>
+  </si>
+  <si>
+    <t>机构逃肉</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>非手机-VR</t>
+  </si>
+  <si>
+    <t>非手机-车载</t>
+  </si>
+  <si>
+    <t>非手机-无人机</t>
+  </si>
+  <si>
+    <t>等等</t>
+  </si>
+  <si>
+    <t>主摄</t>
+  </si>
+  <si>
+    <t>广角</t>
+  </si>
+  <si>
+    <t>长焦</t>
+  </si>
+  <si>
+    <t>鱼眼</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PEL5014CL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P9000</t>
+    </r>
+  </si>
+  <si>
+    <t>模具类型</t>
+  </si>
+  <si>
+    <t>双分</t>
+  </si>
+  <si>
+    <t>整体</t>
+  </si>
+  <si>
+    <t>分割位置</t>
+  </si>
+  <si>
+    <t>承靠到终端</t>
+  </si>
+  <si>
+    <t>承靠到外径</t>
   </si>
 </sst>
 </file>
@@ -213,7 +421,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +438,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,13 +471,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -608,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -633,6 +848,56 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -643,6 +908,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,36 +1053,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,109 +1089,124 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -913,10 +1214,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1267,203 +1583,414 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="36" max="36" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1" spans="1:32">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="29.1" customHeight="1" spans="1:39">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:32">
-      <c r="A2" s="3" t="s">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:39">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="3" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="7"/>
-    </row>
-    <row r="3" ht="57" customHeight="1" spans="1:31">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="1:39">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="3"/>
+      <c r="AE3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM3" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="T2:AD2"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="X2:AL2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="AM2:AM3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/structureData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/structureData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="409"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="409" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据搜集模板" sheetId="1" r:id="rId1"/>
-    <sheet name="数据格式备注" sheetId="2" r:id="rId2"/>
+    <sheet name="数据格式说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -20,7 +20,31 @@
     <author>Xiang Yang</author>
   </authors>
   <commentList>
-    <comment ref="V3" authorId="0">
+    <comment ref="W3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Xiang Yang:最大高度差定义为承靠内最大高度差，非矢高
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Xiang Yang</author>
+  </authors>
+  <commentList>
+    <comment ref="W3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>项目量产结构数据表</t>
   </si>
@@ -62,6 +86,9 @@
     <t>材料</t>
   </si>
   <si>
+    <t>结构方案总数</t>
+  </si>
+  <si>
     <t>光学区域</t>
   </si>
   <si>
@@ -75,6 +102,161 @@
   </si>
   <si>
     <t>芯厚(um)</t>
+  </si>
+  <si>
+    <t>光学最厚壁厚(um)</t>
+  </si>
+  <si>
+    <t>光学最薄壁厚(um)</t>
+  </si>
+  <si>
+    <t>光学最厚/芯厚</t>
+  </si>
+  <si>
+    <t>光学厚薄比</t>
+  </si>
+  <si>
+    <t>光学最大角度R1(°)</t>
+  </si>
+  <si>
+    <t>光学最大角度R2(°)</t>
+  </si>
+  <si>
+    <t>外径(um)</t>
+  </si>
+  <si>
+    <t>边厚(um)</t>
+  </si>
+  <si>
+    <t>整体最薄壁厚(um)</t>
+  </si>
+  <si>
+    <t>整体最厚壁厚(um)</t>
+  </si>
+  <si>
+    <t>整体厚薄比</t>
+  </si>
+  <si>
+    <t>整体径厚比</t>
+  </si>
+  <si>
+    <t>整体最大角度R1(°)</t>
+  </si>
+  <si>
+    <t>整体最大角度R2(°)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大高度差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(um)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大高度差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(um)</t>
+    </r>
+  </si>
+  <si>
+    <t>R1终端到R2坎合根部距离(um)</t>
+  </si>
+  <si>
+    <t>机构中间部分厚度(um)</t>
+  </si>
+  <si>
+    <t>坎合底部到外径距离(um)</t>
+  </si>
+  <si>
+    <t>机构径厚比</t>
+  </si>
+  <si>
+    <t>R1坎合角度(°)</t>
+  </si>
+  <si>
+    <t>R1坎合高度(um)</t>
+  </si>
+  <si>
+    <t>R2坎合角度(°)</t>
+  </si>
+  <si>
+    <t>R2坎合高度(um)</t>
+  </si>
+  <si>
+    <t>R1消光位置（粗糙度SRTM）</t>
+  </si>
+  <si>
+    <t>R2消光位置（粗糙度SRTM）</t>
+  </si>
+  <si>
+    <t>R1分割位位置</t>
+  </si>
+  <si>
+    <t>R2分割位位置</t>
+  </si>
+  <si>
+    <t>外径消光位置（粗糙度SRTM）</t>
+  </si>
+  <si>
+    <t>分型面上抬比例</t>
+  </si>
+  <si>
+    <t>机构逃肉</t>
   </si>
   <si>
     <r>
@@ -83,41 +265,35 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>光学</t>
+      </rPr>
+      <t>整体</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最厚壁厚(um)</t>
-    </r>
-  </si>
-  <si>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R1</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>光学</t>
+      </rPr>
+      <t>最大高度差</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最薄壁厚(um)</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(um)</t>
     </r>
   </si>
   <si>
@@ -127,226 +303,45 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>光学</t>
+      </rPr>
+      <t>整体</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最厚/芯厚</t>
-    </r>
-  </si>
-  <si>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R2</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>光学</t>
+      </rPr>
+      <t>最大高度差</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>厚薄比</t>
-    </r>
-  </si>
-  <si>
-    <t>光学最大角度R1(°)</t>
-  </si>
-  <si>
-    <t>光学最大角度R2(°)</t>
-  </si>
-  <si>
-    <t>外径(um)</t>
-  </si>
-  <si>
-    <t>边厚(um)</t>
-  </si>
-  <si>
-    <t>整体最薄壁厚(um)</t>
-  </si>
-  <si>
-    <t>整体最厚壁厚(um)</t>
-  </si>
-  <si>
-    <t>整体厚薄比</t>
-  </si>
-  <si>
-    <t>整体径厚比</t>
-  </si>
-  <si>
-    <t>整体最大角度R1(°)</t>
-  </si>
-  <si>
-    <t>整体最大角度R2(°)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>整体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>R1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大高度差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>(um)</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>整体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最大高度差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(um)</t>
-    </r>
-  </si>
-  <si>
-    <t>R1终端到R2坎合根部距离(um)</t>
-  </si>
-  <si>
-    <t>机构中间部分厚度(um)</t>
-  </si>
-  <si>
-    <t>坎合底部到外径距离(um)</t>
-  </si>
-  <si>
-    <t>机构径厚比</t>
-  </si>
-  <si>
-    <t>R1坎合角度(°)</t>
-  </si>
-  <si>
-    <t>R1坎合高度(um)</t>
-  </si>
-  <si>
-    <t>R2坎合角度(°)</t>
-  </si>
-  <si>
-    <t>R2坎合高度(um)</t>
-  </si>
-  <si>
-    <t>R1消光位置（粗糙度SRTM）</t>
-  </si>
-  <si>
-    <t>R2消光位置（粗糙度SRTM）</t>
-  </si>
-  <si>
-    <t>R1分割位位置</t>
-  </si>
-  <si>
-    <t>R2分割位位置</t>
-  </si>
-  <si>
-    <t>外径消光位置（粗糙度SRTM）</t>
-  </si>
-  <si>
-    <t>分型面上抬比例</t>
-  </si>
-  <si>
-    <t>机构逃肉</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
     <t>手机</t>
   </si>
   <si>
-    <t>非手机-VR</t>
-  </si>
-  <si>
-    <t>非手机-车载</t>
-  </si>
-  <si>
-    <t>非手机-无人机</t>
-  </si>
-  <si>
-    <t>等等</t>
-  </si>
-  <si>
-    <t>主摄</t>
-  </si>
-  <si>
-    <t>广角</t>
-  </si>
-  <si>
-    <t>长焦</t>
-  </si>
-  <si>
-    <t>鱼眼</t>
+    <t>后置主摄</t>
+  </si>
+  <si>
+    <t>3P</t>
   </si>
   <si>
     <r>
@@ -357,7 +352,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A</t>
+      <t>P</t>
     </r>
     <r>
       <rPr>
@@ -367,8 +362,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PEL5014CL</t>
-    </r>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>EP3500</t>
+  </si>
+  <si>
+    <t>根据项目实际数据填写，假如没有数据，比如无坎合结构，在对应数据位置处输入“/”。</t>
+  </si>
+  <si>
+    <t>SRTM 2-4</t>
+  </si>
+  <si>
+    <t>承靠到外径</t>
   </si>
   <si>
     <r>
@@ -379,7 +386,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>E</t>
+      <t>R</t>
     </r>
     <r>
       <rPr>
@@ -389,26 +396,258 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>P9000</t>
-    </r>
-  </si>
-  <si>
-    <t>模具类型</t>
-  </si>
-  <si>
-    <t>双分</t>
-  </si>
-  <si>
-    <t>整体</t>
-  </si>
-  <si>
-    <t>分割位置</t>
+      <t>1:R2，如分型面未上抬，输入“/”</t>
+    </r>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全P项目组立图统一放置在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P1处，G+P项目放置在第一片P镜片处</t>
+    </r>
+  </si>
+  <si>
+    <t>非手机-VR</t>
+  </si>
+  <si>
+    <t>后置广角</t>
+  </si>
+  <si>
+    <t>4P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>SRTM 4-6</t>
   </si>
   <si>
     <t>承靠到终端</t>
   </si>
   <si>
-    <t>承靠到外径</t>
+    <t>无</t>
+  </si>
+  <si>
+    <t>非手机-车载</t>
+  </si>
+  <si>
+    <t>后置长焦</t>
+  </si>
+  <si>
+    <t>5P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>EP10000</t>
+  </si>
+  <si>
+    <t>非手机-无人机</t>
+  </si>
+  <si>
+    <t>后置景深</t>
+  </si>
+  <si>
+    <t>6P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>SP5590</t>
+  </si>
+  <si>
+    <t>若结构上无消光或无分割位置，输入“/”</t>
+  </si>
+  <si>
+    <t>非手机-运动相机</t>
+  </si>
+  <si>
+    <t>前置小头</t>
+  </si>
+  <si>
+    <t>7P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>APL5014(04)</t>
+  </si>
+  <si>
+    <t>CSP镜头</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G5P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>K26R</t>
+  </si>
+  <si>
+    <t>前置主摄</t>
+  </si>
+  <si>
+    <t>1G6P</t>
+  </si>
+  <si>
+    <t>T62R</t>
+  </si>
+  <si>
+    <t>屏下指纹</t>
+  </si>
+  <si>
+    <t>2G4P</t>
+  </si>
+  <si>
+    <t>APP600</t>
+  </si>
+  <si>
+    <t>红外镜头</t>
+  </si>
+  <si>
+    <t>微距景深</t>
+  </si>
+  <si>
+    <t>景深镜头</t>
   </si>
 </sst>
 </file>
@@ -421,7 +660,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,19 +678,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -459,7 +703,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -468,7 +718,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -618,23 +880,34 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -867,30 +1140,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -908,6 +1157,19 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,6 +1195,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1041,10 +1312,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,154 +1324,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,28 +1470,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1583,239 +1872,254 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="36" max="36" width="11.875" customWidth="1"/>
+    <col min="37" max="37" width="11.875" customWidth="1"/>
+    <col min="38" max="38" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.1" customHeight="1" spans="1:39">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="29.1" customHeight="1" spans="1:40">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:39">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="21" customHeight="1" spans="1:40">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="13" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="8" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="19" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="57" customHeight="1" spans="1:39">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12" t="s">
+    <row r="3" ht="57" customHeight="1" spans="1:40">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AC3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AD3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AG3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AI3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AK3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AM3" s="8"/>
+      <c r="AM3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="19"/>
     </row>
+    <row r="4" customHeight="1"/>
+    <row r="5" customHeight="1"/>
+    <row r="6" customHeight="1"/>
+    <row r="7" customHeight="1"/>
+    <row r="8" customHeight="1"/>
+    <row r="9" customHeight="1"/>
+    <row r="10" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:W2"/>
-    <mergeCell ref="X2:AL2"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:AN1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="Y2:AM2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="AN2:AN3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1827,170 +2131,690 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:D24"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="40" max="40" width="18.25" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="1" t="s">
+    <row r="1" ht="22.5" spans="1:40">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:40">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="57" spans="1:40">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="AN3" s="19"/>
     </row>
-    <row r="4" spans="3:4">
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
+    <row r="4" customHeight="1" spans="1:40">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN4" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
+    <row r="5" spans="1:40">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL5" s="21"/>
+      <c r="AM5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN5" s="21"/>
     </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="6" spans="1:40">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL6" s="21"/>
+      <c r="AN6" s="21"/>
     </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="3"/>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
+    <row r="7" spans="1:40">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="21"/>
+      <c r="AN7" s="21"/>
     </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="8" spans="1:40">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="21"/>
+      <c r="AN8" s="21"/>
     </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="9" spans="1:40">
+      <c r="A9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="21"/>
+      <c r="AN9" s="21"/>
     </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
+    <row r="10" spans="2:40">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="21"/>
+      <c r="AN10" s="21"/>
     </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="3"/>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="4"/>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4</v>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="3"/>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="3"/>
-      <c r="D16" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="4"/>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="3"/>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="4"/>
-      <c r="D22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="4"/>
-      <c r="D24" s="1" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="13" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:AN1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="Y2:AM2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="AL4:AL10"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AN4:AN10"/>
+    <mergeCell ref="H4:AF10"/>
+    <mergeCell ref="AG7:AK10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>